--- a/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/Needs Analysis Survey/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="940" windowWidth="31220" windowHeight="16260"/>
+    <workbookView xWindow="15" yWindow="945" windowWidth="29040" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$E$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$E$1:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -137,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,17 +704,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -743,73 +728,68 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$20:$M$20</c:f>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$23:$M$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>6.805446536716204</c:v>
+                    <c:v>6.5697024827669557</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.015867678819747</c:v>
+                    <c:v>4.5593777751568716</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.671102253852619</c:v>
+                    <c:v>3.6269544747087616</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.265254886886527</c:v>
+                    <c:v>6.9072806744615116</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.393127439273134</c:v>
+                    <c:v>6.2136972775129014</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.305376877237263</c:v>
+                    <c:v>5.0416224230248288</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$20:$M$20</c:f>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$23:$M$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>6.805446536716204</c:v>
+                    <c:v>6.5697024827669557</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.015867678819747</c:v>
+                    <c:v>4.5593777751568716</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.671102253852619</c:v>
+                    <c:v>3.6269544747087616</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.265254886886527</c:v>
+                    <c:v>6.9072806744615116</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.393127439273134</c:v>
+                    <c:v>6.2136972775129014</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.305376877237263</c:v>
+                    <c:v>5.0416224230248288</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -843,50 +823,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$18:$M$18</c:f>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>62.76923076923077</c:v>
+                  <c:v>59.941176470588232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.4</c:v>
+                  <c:v>81.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.64285714285714</c:v>
+                  <c:v>68.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.6</c:v>
+                  <c:v>55.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.5</c:v>
+                  <c:v>54.578947368421055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.93333333333334</c:v>
+                  <c:v>73.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2082989264"/>
-        <c:axId val="2109923648"/>
+        <c:dLbls/>
+        <c:axId val="78581760"/>
+        <c:axId val="78583680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082989264"/>
+        <c:axId val="78581760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -910,25 +881,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109923648"/>
+        <c:crossAx val="78583680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109923648"/>
+        <c:axId val="78583680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -953,24 +919,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082989264"/>
+        <c:crossAx val="78581760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -978,17 +940,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1017,7 +969,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1025,34 +976,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1065,7 +994,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$R$3:$R$6</c:f>
@@ -1093,40 +1021,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2074859856"/>
-        <c:axId val="-2074853616"/>
+        <c:axId val="78621696"/>
+        <c:axId val="81335424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074859856"/>
+        <c:axId val="78621696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1160,7 +1080,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1168,30 +1087,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1226,19 +1124,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074853616"/>
+        <c:crossAx val="81335424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074853616"/>
+        <c:axId val="81335424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1281,7 +1177,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1289,30 +1184,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1341,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2074859856"/>
+        <c:crossAx val="78621696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1355,7 +1229,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1384,7 +1257,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1392,17 +1265,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1436,7 +1299,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1444,34 +1306,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1484,7 +1324,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$V$3:$V$4</c:f>
@@ -1506,34 +1345,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2080739056"/>
-        <c:axId val="-2080483904"/>
+        <c:axId val="81384576"/>
+        <c:axId val="81386496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2080739056"/>
+        <c:axId val="81384576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1567,7 +1398,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1575,30 +1405,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1633,19 +1442,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080483904"/>
+        <c:crossAx val="81386496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080483904"/>
+        <c:axId val="81386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1693,7 +1500,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1701,30 +1507,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1753,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080739056"/>
+        <c:crossAx val="81384576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1767,7 +1552,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1796,7 +1580,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3026,7 +2810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3061,7 +2845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3269,19 +3053,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +3112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3339,14 +3123,14 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E17" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E2:E20" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G17" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G2:G20" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H2">
@@ -3389,7 +3173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3451,7 +3235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3501,7 +3285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3554,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3607,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3651,7 +3435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3697,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="45">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3718,6 +3502,9 @@
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
       <c r="I9">
         <v>94</v>
       </c>
@@ -3740,7 +3527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3784,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3830,7 +3617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3877,7 +3664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3923,7 +3710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3961,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4005,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="30">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4051,7 +3838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="60">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4097,91 +3884,205 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:15">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Up to 50%</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H18">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <v>89</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>95</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>86</v>
+      </c>
+      <c r="J20">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>49</v>
+      </c>
+      <c r="M20">
+        <v>51</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="H18">
-        <f t="shared" ref="H18:M18" si="2">AVERAGE(H2:H17)</f>
-        <v>62.769230769230766</v>
-      </c>
-      <c r="I18">
+      <c r="H21">
+        <f>AVERAGE(H2:H20)</f>
+        <v>59.941176470588232</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:M21" si="2">AVERAGE(I2:I20)</f>
+        <v>81.166666666666671</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="2"/>
-        <v>82.4</v>
-      </c>
-      <c r="J18">
+        <v>68.764705882352942</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="2"/>
-        <v>72.642857142857139</v>
-      </c>
-      <c r="K18">
+        <v>55.833333333333336</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="2"/>
-        <v>56.6</v>
-      </c>
-      <c r="L18">
+        <v>54.578947368421055</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="2"/>
-        <v>55.5</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>77.933333333333337</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="H19">
-        <f t="shared" ref="H19:M19" si="3">STDEV(H2:H17)</f>
-        <v>27.221786146864815</v>
-      </c>
-      <c r="I19">
+      <c r="H22">
+        <f>STDEV(H2:H20)</f>
+        <v>28.636669211509425</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:M22" si="3">STDEV(I2:I20)</f>
+        <v>19.873866967334116</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="3"/>
-        <v>20.063470715278989</v>
-      </c>
-      <c r="J19">
+        <v>15.809528028078141</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="3"/>
-        <v>14.684409015410475</v>
-      </c>
-      <c r="K19">
+        <v>30.108138434649195</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="3"/>
-        <v>29.06101954754611</v>
-      </c>
-      <c r="L19">
+        <v>27.084878498432548</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="3"/>
-        <v>29.572509757092536</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>21.221507508949053</v>
+        <v>21.9759226534539</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="H20">
-        <f t="shared" ref="H20:M20" si="4">H19/SQRT(16)</f>
-        <v>6.8054465367162038</v>
-      </c>
-      <c r="I20">
+      <c r="H23">
+        <f>H22/SQRT(19)</f>
+        <v>6.5697024827669557</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:M23" si="4">I22/SQRT(19)</f>
+        <v>4.5593777751568716</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="4"/>
-        <v>5.0158676788197472</v>
-      </c>
-      <c r="J20">
+        <v>3.6269544747087616</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
-        <v>3.6711022538526188</v>
-      </c>
-      <c r="K20">
+        <v>6.9072806744615116</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="4"/>
-        <v>7.2652548868865274</v>
-      </c>
-      <c r="L20">
+        <v>6.2136972775129014</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
-        <v>7.3931274392731341</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
-        <v>5.3053768772372631</v>
+        <v>5.0416224230248288</v>
       </c>
     </row>
   </sheetData>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
@@ -10,9 +10,9 @@
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$E$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$E$1:$E$26</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>record_id</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>percent_of_totally_ees</t>
-  </si>
-  <si>
-    <t>instrument_set</t>
   </si>
   <si>
     <t>instruments</t>
@@ -127,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve">count: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> More specialised instruments for coagulations.   - More specialised instruments for single handed drilling means drilling irrigation and suction in the same time.</t>
+  </si>
+  <si>
+    <t>instrument set</t>
   </si>
 </sst>
 </file>
@@ -742,54 +745,54 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$23:$M$23</c:f>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$26:$M$26</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>6.5697024827669557</c:v>
+                    <c:v>5.9536788514353631</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.5593777751568716</c:v>
+                    <c:v>4.09442129174389</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6269544747087616</c:v>
+                    <c:v>3.8157317270007587</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.9072806744615116</c:v>
+                    <c:v>6.6560358962984747</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.2136972775129014</c:v>
+                    <c:v>5.9448220403060921</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.0416224230248288</c:v>
+                    <c:v>4.5635009724487965</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$23:$M$23</c:f>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$26:$M$26</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>6.5697024827669557</c:v>
+                    <c:v>5.9536788514353631</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.5593777751568716</c:v>
+                    <c:v>4.09442129174389</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6269544747087616</c:v>
+                    <c:v>3.8157317270007587</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.9072806744615116</c:v>
+                    <c:v>6.6560358962984747</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.2136972775129014</c:v>
+                    <c:v>5.9448220403060921</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.0416224230248288</c:v>
+                    <c:v>4.5635009724487965</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -823,38 +826,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$21:$M$21</c:f>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$24:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59.941176470588232</c:v>
+                  <c:v>61.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.166666666666671</c:v>
+                  <c:v>83.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.764705882352942</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.833333333333336</c:v>
+                  <c:v>55.476190476190474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.578947368421055</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.333333333333329</c:v>
+                  <c:v>75.80952380952381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="78581760"/>
-        <c:axId val="78583680"/>
+        <c:axId val="66367872"/>
+        <c:axId val="66369792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78581760"/>
+        <c:axId val="66367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,14 +886,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78583680"/>
+        <c:crossAx val="66369792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78583680"/>
+        <c:axId val="66369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +924,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78581760"/>
+        <c:crossAx val="66367872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,7 +934,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1036,14 +1038,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="78621696"/>
-        <c:axId val="81335424"/>
+        <c:axId val="66424192"/>
+        <c:axId val="114689536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78621696"/>
+        <c:axId val="66424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,14 +1125,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81335424"/>
+        <c:crossAx val="114689536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81335424"/>
+        <c:axId val="114689536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78621696"/>
+        <c:crossAx val="66424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1257,7 +1258,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1354,14 +1355,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="81384576"/>
-        <c:axId val="81386496"/>
+        <c:axId val="66434560"/>
+        <c:axId val="66436480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81384576"/>
+        <c:axId val="66434560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +1442,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81386496"/>
+        <c:crossAx val="66436480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81386496"/>
+        <c:axId val="66436480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81384576"/>
+        <c:crossAx val="66434560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1580,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2678,13 +2678,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>63499</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2708,13 +2708,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2738,13 +2738,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3054,14 +3054,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3079,37 +3086,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3123,14 +3130,14 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E20" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E2:E23" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G20" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G2:G23" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H2">
@@ -3152,25 +3159,25 @@
         <v>72</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3229,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W3">
         <v>14</v>
@@ -3270,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -3279,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -3332,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -3385,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -3475,7 +3482,7 @@
         <v>86</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -3521,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -3608,13 +3615,13 @@
         <v>69</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -3661,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="30">
@@ -3704,7 +3711,7 @@
         <v>84</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -3832,7 +3839,7 @@
         <v>90</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -3878,7 +3885,7 @@
         <v>92</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -3917,7 +3924,6 @@
       <c r="M18">
         <v>50</v>
       </c>
-      <c r="N18"/>
       <c r="O18">
         <v>2</v>
       </c>
@@ -3955,7 +3961,6 @@
       <c r="M19">
         <v>50</v>
       </c>
-      <c r="N19"/>
       <c r="O19">
         <v>2</v>
       </c>
@@ -3993,96 +3998,200 @@
       <c r="M20">
         <v>51</v>
       </c>
-      <c r="N20"/>
       <c r="O20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>14</v>
+    <row r="21" spans="1:15" ht="45">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(H2:H20)</f>
-        <v>59.941176470588232</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:M21" si="2">AVERAGE(I2:I20)</f>
-        <v>81.166666666666671</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>68.764705882352942</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>55.833333333333336</v>
+        <v>50</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
-        <v>54.578947368421055</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
-        <v>73.333333333333329</v>
+        <v>100</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>15</v>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Up to 50%</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
       </c>
       <c r="H22">
-        <f>STDEV(H2:H20)</f>
-        <v>28.636669211509425</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:M22" si="3">STDEV(I2:I20)</f>
-        <v>19.873866967334116</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
-        <v>15.809528028078141</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
-        <v>30.108138434649195</v>
+        <v>100</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
-        <v>27.084878498432548</v>
+        <v>69</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>21.9759226534539</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>16</v>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
       </c>
       <c r="H23">
-        <f>H22/SQRT(19)</f>
-        <v>6.5697024827669557</v>
+        <v>68</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:M23" si="4">I22/SQRT(19)</f>
-        <v>4.5593777751568716</v>
+        <v>88</v>
       </c>
       <c r="J23">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>49</v>
+      </c>
+      <c r="M23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(H2:H23)</f>
+        <v>61.85</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:M24" si="2">AVERAGE(I2:I23)</f>
+        <v>83.285714285714292</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>55.476190476190474</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>75.80952380952381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f>STDEV(H2:H23)</f>
+        <v>27.925229113699885</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:M25" si="3">STDEV(I2:I23)</f>
+        <v>19.204538154152146</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>17.897368227582632</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>31.219575665948835</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>27.883686987197372</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>21.404716881143383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <f>H25/SQRT(22)</f>
+        <v>5.9536788514353631</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:M26" si="4">I25/SQRT(22)</f>
+        <v>4.09442129174389</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="4"/>
-        <v>3.6269544747087616</v>
-      </c>
-      <c r="K23">
+        <v>3.8157317270007587</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
-        <v>6.9072806744615116</v>
-      </c>
-      <c r="L23">
+        <v>6.6560358962984747</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="4"/>
-        <v>6.2136972775129014</v>
-      </c>
-      <c r="M23">
+        <v>5.9448220403060921</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
-        <v>5.0416224230248288</v>
+        <v>4.5635009724487965</v>
       </c>
     </row>
   </sheetData>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>record_id</t>
   </si>
@@ -130,6 +130,39 @@
   </si>
   <si>
     <t>instrument set</t>
+  </si>
+  <si>
+    <t>endoscope</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrument </t>
+  </si>
+  <si>
+    <t>retractible</t>
+  </si>
+  <si>
+    <t>suction elevators to control amount of suction</t>
+  </si>
+  <si>
+    <t>angled shaft</t>
+  </si>
+  <si>
+    <t>bipolar with suction</t>
+  </si>
+  <si>
+    <t>disposable curved and angled suckers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coagulations </t>
+  </si>
+  <si>
+    <t>single handed drilling - irrigation and suction at the same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -852,11 +885,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66367872"/>
-        <c:axId val="66369792"/>
+        <c:axId val="68885504"/>
+        <c:axId val="92284416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66367872"/>
+        <c:axId val="68885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,14 +919,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66369792"/>
+        <c:crossAx val="92284416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66369792"/>
+        <c:axId val="92284416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +957,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66367872"/>
+        <c:crossAx val="68885504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -934,7 +967,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1040,11 +1073,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="66424192"/>
-        <c:axId val="114689536"/>
+        <c:axId val="92317952"/>
+        <c:axId val="97526144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66424192"/>
+        <c:axId val="92317952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,14 +1158,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114689536"/>
+        <c:crossAx val="97526144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114689536"/>
+        <c:axId val="97526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66424192"/>
+        <c:crossAx val="92317952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,7 +1291,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1357,11 +1390,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="66434560"/>
-        <c:axId val="66436480"/>
+        <c:axId val="97566720"/>
+        <c:axId val="97568640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66434560"/>
+        <c:axId val="97566720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +1475,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66436480"/>
+        <c:crossAx val="97568640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66436480"/>
+        <c:axId val="97568640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66434560"/>
+        <c:crossAx val="97566720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1613,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2676,16 +2709,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63499</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>492124</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>92074</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3054,11 +3087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3845,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="60">
+    <row r="17" spans="1:21" ht="60">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3890,8 +3923,11 @@
       <c r="O17">
         <v>2</v>
       </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:21">
       <c r="D18">
         <v>2</v>
       </c>
@@ -3928,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:21">
       <c r="D19">
         <v>1</v>
       </c>
@@ -3965,7 +4001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:21">
       <c r="D20">
         <v>1</v>
       </c>
@@ -4002,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="45">
+    <row r="21" spans="1:21" ht="45">
       <c r="D21">
         <v>3</v>
       </c>
@@ -4038,8 +4074,14 @@
       <c r="N21" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:21">
       <c r="D22">
         <v>2</v>
       </c>
@@ -4072,8 +4114,14 @@
       <c r="M22">
         <v>81</v>
       </c>
+      <c r="S22" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:21">
       <c r="D23">
         <v>3</v>
       </c>
@@ -4106,8 +4154,11 @@
       <c r="M23">
         <v>91</v>
       </c>
+      <c r="T23" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4135,8 +4186,11 @@
         <f t="shared" si="2"/>
         <v>75.80952380952381</v>
       </c>
+      <c r="T24" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -4164,8 +4218,11 @@
         <f t="shared" si="3"/>
         <v>21.404716881143383</v>
       </c>
+      <c r="T25" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -4192,6 +4249,19 @@
       <c r="M26">
         <f t="shared" si="4"/>
         <v>4.5635009724487965</v>
+      </c>
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="T27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="T28" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15" yWindow="945" windowWidth="29040" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$E$1:$E$26</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -168,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +513,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -671,7 +682,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,6 +692,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -740,7 +755,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -763,19 +788,23 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$26:$M$26</c:f>
@@ -783,22 +812,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>5.9536788514353631</c:v>
+                    <c:v>5.953678851435363</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.09442129174389</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.8157317270007587</c:v>
+                    <c:v>3.815731727000759</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.6560358962984747</c:v>
+                    <c:v>6.656035896298475</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.9448220403060921</c:v>
+                    <c:v>5.944822040306092</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5635009724487965</c:v>
+                    <c:v>4.563500972448796</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -810,22 +839,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>5.9536788514353631</c:v>
+                    <c:v>5.953678851435363</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.09442129174389</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.8157317270007587</c:v>
+                    <c:v>3.815731727000759</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.6560358962984747</c:v>
+                    <c:v>6.656035896298475</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.9448220403060921</c:v>
+                    <c:v>5.944822040306092</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.5635009724487965</c:v>
+                    <c:v>4.563500972448796</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -867,13 +896,13 @@
                   <c:v>61.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.285714285714292</c:v>
+                  <c:v>83.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.476190476190474</c:v>
+                  <c:v>55.47619047619047</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>52.5</c:v>
@@ -885,14 +914,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68885504"/>
-        <c:axId val="92284416"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2104019216"/>
+        <c:axId val="-2143862880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68885504"/>
+        <c:axId val="-2104019216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -915,21 +954,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92284416"/>
+        <c:crossAx val="-2143862880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92284416"/>
+        <c:axId val="-2143862880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -953,21 +996,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68885504"/>
+        <c:crossAx val="-2104019216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -975,7 +1021,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1004,6 +1060,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1011,12 +1068,34 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1029,6 +1108,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$R$3:$R$6</c:f>
@@ -1056,31 +1136,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="92317952"/>
-        <c:axId val="97526144"/>
+        <c:axId val="-2104046048"/>
+        <c:axId val="-2104052576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92317952"/>
+        <c:axId val="-2104046048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1114,6 +1203,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1121,9 +1211,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1158,17 +1269,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97526144"/>
+        <c:crossAx val="-2104052576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97526144"/>
+        <c:axId val="-2104052576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1211,6 +1324,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1218,9 +1332,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1249,7 +1384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92317952"/>
+        <c:crossAx val="-2104046048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1263,6 +1398,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1291,7 +1427,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1299,7 +1435,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1332,7 +1478,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1340,12 +1486,34 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1358,6 +1526,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$V$3:$V$4</c:f>
@@ -1379,25 +1548,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="97566720"/>
-        <c:axId val="97568640"/>
+        <c:axId val="2122623120"/>
+        <c:axId val="2122629312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97566720"/>
+        <c:axId val="2122623120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1430,7 +1608,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1438,9 +1616,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1475,17 +1674,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97568640"/>
+        <c:crossAx val="2122629312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97568640"/>
+        <c:axId val="2122629312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1532,7 +1733,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1540,9 +1741,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1571,7 +1793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97566720"/>
+        <c:crossAx val="2122623120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1585,6 +1807,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1613,7 +1836,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3086,26 +3309,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3213,7 +3436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3275,7 +3498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3325,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3378,7 +3601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3431,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3475,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30">
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3521,7 +3744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="45">
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3567,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3611,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3657,7 +3880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3704,7 +3927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3750,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3788,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -3832,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3878,7 +4101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="60">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3927,7 +4150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2</v>
       </c>
@@ -3964,7 +4187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>1</v>
       </c>
@@ -4001,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>1</v>
       </c>
@@ -4038,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>3</v>
       </c>
@@ -4081,7 +4304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>2</v>
       </c>
@@ -4121,7 +4344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>3</v>
       </c>
@@ -4158,39 +4381,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
+    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <f>AVERAGE(H2:H23)</f>
         <v>61.85</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <f t="shared" ref="I24:M24" si="2">AVERAGE(I2:I23)</f>
         <v>83.285714285714292</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>55.476190476190474</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <f t="shared" si="2"/>
         <v>75.80952380952381</v>
       </c>
-      <c r="T24" t="s">
+      <c r="N24" s="6"/>
+      <c r="T24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -4222,44 +4446,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <f>H25/SQRT(22)</f>
         <v>5.9536788514353631</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <f t="shared" ref="I26:M26" si="4">I25/SQRT(22)</f>
         <v>4.09442129174389</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <f t="shared" si="4"/>
         <v>3.8157317270007587</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>6.6560358962984747</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <f t="shared" si="4"/>
         <v>5.9448220403060921</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <f t="shared" si="4"/>
         <v>4.5635009724487965</v>
       </c>
-      <c r="T26" t="s">
+      <c r="N26" s="6"/>
+      <c r="T26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T28" t="s">
         <v>45</v>
       </c>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 18-May-2017.xlsx
@@ -788,6 +788,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -923,11 +924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2104019216"/>
-        <c:axId val="-2143862880"/>
+        <c:axId val="-2060210400"/>
+        <c:axId val="-2058580416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2104019216"/>
+        <c:axId val="-2060210400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,13 +955,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143862880"/>
+        <c:crossAx val="-2058580416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,7 +970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143862880"/>
+        <c:axId val="-2058580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,13 +998,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104019216"/>
+        <c:crossAx val="-2060210400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1161,11 +1164,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2104046048"/>
-        <c:axId val="-2104052576"/>
+        <c:axId val="-2045622384"/>
+        <c:axId val="-2045579840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2104046048"/>
+        <c:axId val="-2045622384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104052576"/>
+        <c:crossAx val="-2045579840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104052576"/>
+        <c:axId val="-2045579840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104046048"/>
+        <c:crossAx val="-2045622384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,6 +1481,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,11 +1571,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2122623120"/>
-        <c:axId val="2122629312"/>
+        <c:axId val="-2068258816"/>
+        <c:axId val="-2068252624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122623120"/>
+        <c:axId val="-2068258816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,6 +1612,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1674,7 +1679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122629312"/>
+        <c:crossAx val="-2068252624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1682,7 +1687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122629312"/>
+        <c:axId val="-2068252624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,6 +1738,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1793,7 +1799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122623120"/>
+        <c:crossAx val="-2068258816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2992,16 +2998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3312,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
